--- a/1.xlsx
+++ b/1.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -365,6 +365,16 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +374,96 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>3</v>
       </c>
     </row>
